--- a/data/pca/factorExposure/factorExposure_2012-02-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01462882719403517</v>
+        <v>0.01505453562090601</v>
       </c>
       <c r="C2">
-        <v>0.02956486710382896</v>
+        <v>0.02541197478765318</v>
       </c>
       <c r="D2">
-        <v>0.006552638155435279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.006120529756502876</v>
+      </c>
+      <c r="E2">
+        <v>-0.01002342503249934</v>
+      </c>
+      <c r="F2">
+        <v>0.01156631667148042</v>
+      </c>
+      <c r="G2">
+        <v>0.01649069644929943</v>
+      </c>
+      <c r="H2">
+        <v>-0.0463566154303267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07257800401481983</v>
+        <v>0.08748087492821519</v>
       </c>
       <c r="C4">
-        <v>0.05038097320780505</v>
+        <v>0.03810299872300744</v>
       </c>
       <c r="D4">
-        <v>0.08250344342787196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06338999498244223</v>
+      </c>
+      <c r="E4">
+        <v>-0.01691824647933774</v>
+      </c>
+      <c r="F4">
+        <v>0.0327256949614501</v>
+      </c>
+      <c r="G4">
+        <v>0.001597405650802626</v>
+      </c>
+      <c r="H4">
+        <v>0.0398097348795338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1082437251963804</v>
+        <v>0.1191740659843008</v>
       </c>
       <c r="C6">
-        <v>0.05472141885839624</v>
+        <v>0.03455652518566918</v>
       </c>
       <c r="D6">
-        <v>-0.001166343453989683</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01446673982306907</v>
+      </c>
+      <c r="E6">
+        <v>0.009422406705536514</v>
+      </c>
+      <c r="F6">
+        <v>0.05513825104958173</v>
+      </c>
+      <c r="G6">
+        <v>0.0337109505638464</v>
+      </c>
+      <c r="H6">
+        <v>-0.1192552434538421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04976690563087107</v>
+        <v>0.06414375135468056</v>
       </c>
       <c r="C7">
-        <v>0.02867724825649917</v>
+        <v>0.02099223725659548</v>
       </c>
       <c r="D7">
-        <v>0.0447216352923567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04384922370097925</v>
+      </c>
+      <c r="E7">
+        <v>-0.03744975870677481</v>
+      </c>
+      <c r="F7">
+        <v>0.03159859171675595</v>
+      </c>
+      <c r="G7">
+        <v>-0.03792565269506146</v>
+      </c>
+      <c r="H7">
+        <v>0.004823776463853601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03927434907003014</v>
+        <v>0.04140305389545969</v>
       </c>
       <c r="C8">
-        <v>0.01391564940451402</v>
+        <v>0.009182845288585498</v>
       </c>
       <c r="D8">
-        <v>0.05918184451078153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02444956212453071</v>
+      </c>
+      <c r="E8">
+        <v>-0.03443500087259731</v>
+      </c>
+      <c r="F8">
+        <v>0.05058746734338648</v>
+      </c>
+      <c r="G8">
+        <v>0.05488755371766178</v>
+      </c>
+      <c r="H8">
+        <v>-0.007943638888554587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06728815015020212</v>
+        <v>0.07905539622891326</v>
       </c>
       <c r="C9">
-        <v>0.04190773999135463</v>
+        <v>0.02929424281214296</v>
       </c>
       <c r="D9">
-        <v>0.07099055444256362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06204738811354542</v>
+      </c>
+      <c r="E9">
+        <v>-0.04129537270164278</v>
+      </c>
+      <c r="F9">
+        <v>0.02879303017325401</v>
+      </c>
+      <c r="G9">
+        <v>0.005603103136005204</v>
+      </c>
+      <c r="H9">
+        <v>0.0429415083898478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02604700618463874</v>
+        <v>0.03190798186765414</v>
       </c>
       <c r="C10">
-        <v>0.03151401907675319</v>
+        <v>0.04235840781754359</v>
       </c>
       <c r="D10">
-        <v>-0.1731840531285993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1719803409028052</v>
+      </c>
+      <c r="E10">
+        <v>-0.04574565395020976</v>
+      </c>
+      <c r="F10">
+        <v>0.04733121481843477</v>
+      </c>
+      <c r="G10">
+        <v>-0.02534310450232385</v>
+      </c>
+      <c r="H10">
+        <v>-0.04634892488680221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07093547104486356</v>
+        <v>0.07645275624724482</v>
       </c>
       <c r="C11">
-        <v>0.04594626830387335</v>
+        <v>0.02779871615498004</v>
       </c>
       <c r="D11">
-        <v>0.06028286550208997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06280630723327985</v>
+      </c>
+      <c r="E11">
+        <v>0.000580740419389906</v>
+      </c>
+      <c r="F11">
+        <v>0.0294851163233169</v>
+      </c>
+      <c r="G11">
+        <v>-0.001406479918985031</v>
+      </c>
+      <c r="H11">
+        <v>0.0820268418311752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05826999173836666</v>
+        <v>0.06792278474434671</v>
       </c>
       <c r="C12">
-        <v>0.05239665929472556</v>
+        <v>0.037909125508377</v>
       </c>
       <c r="D12">
-        <v>0.04322755289641456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04759298838217053</v>
+      </c>
+      <c r="E12">
+        <v>-0.01460910118381662</v>
+      </c>
+      <c r="F12">
+        <v>0.01797942122627087</v>
+      </c>
+      <c r="G12">
+        <v>0.002154700309510693</v>
+      </c>
+      <c r="H12">
+        <v>0.03948005709898537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06032998703574158</v>
+        <v>0.06446750679686314</v>
       </c>
       <c r="C13">
-        <v>0.03979272897565729</v>
+        <v>0.02535834987380192</v>
       </c>
       <c r="D13">
-        <v>0.0609095142721494</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04218440581262493</v>
+      </c>
+      <c r="E13">
+        <v>-0.01439779765587445</v>
+      </c>
+      <c r="F13">
+        <v>0.005637010192548641</v>
+      </c>
+      <c r="G13">
+        <v>-0.007644398561850211</v>
+      </c>
+      <c r="H13">
+        <v>0.04506574710536507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03233396505176077</v>
+        <v>0.04059925960367948</v>
       </c>
       <c r="C14">
-        <v>0.03068577831668643</v>
+        <v>0.02708530149427579</v>
       </c>
       <c r="D14">
-        <v>0.002590984083503201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.007460302221443711</v>
+      </c>
+      <c r="E14">
+        <v>-0.03733268241181667</v>
+      </c>
+      <c r="F14">
+        <v>0.01040414190311755</v>
+      </c>
+      <c r="G14">
+        <v>0.004794571122428325</v>
+      </c>
+      <c r="H14">
+        <v>0.0569064227219843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0406636146042769</v>
+        <v>0.04073026123275889</v>
       </c>
       <c r="C15">
-        <v>0.01083964391161053</v>
+        <v>0.003864023142146634</v>
       </c>
       <c r="D15">
-        <v>0.01654781819043716</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003620800333198491</v>
+      </c>
+      <c r="E15">
+        <v>-0.03675235116265373</v>
+      </c>
+      <c r="F15">
+        <v>-0.006827619879909653</v>
+      </c>
+      <c r="G15">
+        <v>0.02459903733581557</v>
+      </c>
+      <c r="H15">
+        <v>0.03714952023406622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06064295817996822</v>
+        <v>0.07062824047845914</v>
       </c>
       <c r="C16">
-        <v>0.04211226821850231</v>
+        <v>0.02847422284945715</v>
       </c>
       <c r="D16">
-        <v>0.04652618200421917</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06150990222168849</v>
+      </c>
+      <c r="E16">
+        <v>-0.008257107761395497</v>
+      </c>
+      <c r="F16">
+        <v>0.02372241402993264</v>
+      </c>
+      <c r="G16">
+        <v>-0.004527889758289345</v>
+      </c>
+      <c r="H16">
+        <v>0.05118424381921306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06185703578087039</v>
+        <v>0.06337298140260951</v>
       </c>
       <c r="C20">
-        <v>0.02882012905955628</v>
+        <v>0.01321767616827135</v>
       </c>
       <c r="D20">
-        <v>0.05352154708928574</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03948007417856159</v>
+      </c>
+      <c r="E20">
+        <v>-0.03095102935676078</v>
+      </c>
+      <c r="F20">
+        <v>0.02270578191965669</v>
+      </c>
+      <c r="G20">
+        <v>0.01417319979791457</v>
+      </c>
+      <c r="H20">
+        <v>0.04158258377178309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02560343423864965</v>
+        <v>0.0264306345722555</v>
       </c>
       <c r="C21">
-        <v>-0.003184158403579065</v>
+        <v>-0.009165100589008462</v>
       </c>
       <c r="D21">
-        <v>0.0262252207384246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02475507325202582</v>
+      </c>
+      <c r="E21">
+        <v>-0.04422627642968475</v>
+      </c>
+      <c r="F21">
+        <v>-0.01966884463673199</v>
+      </c>
+      <c r="G21">
+        <v>0.007087216710556603</v>
+      </c>
+      <c r="H21">
+        <v>-0.05004213744450366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07625299965132777</v>
+        <v>0.07363215390110689</v>
       </c>
       <c r="C22">
-        <v>0.06058872175911847</v>
+        <v>0.04247277511296681</v>
       </c>
       <c r="D22">
-        <v>0.1044567453661427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0668808452931984</v>
+      </c>
+      <c r="E22">
+        <v>-0.5638988693672463</v>
+      </c>
+      <c r="F22">
+        <v>-0.241247618981859</v>
+      </c>
+      <c r="G22">
+        <v>-0.07071787879135207</v>
+      </c>
+      <c r="H22">
+        <v>-0.1507021835626324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07722781263784338</v>
+        <v>0.07438129765374117</v>
       </c>
       <c r="C23">
-        <v>0.05948281822333869</v>
+        <v>0.04109694130742753</v>
       </c>
       <c r="D23">
-        <v>0.1060295271912894</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06787873723410749</v>
+      </c>
+      <c r="E23">
+        <v>-0.5632266056229113</v>
+      </c>
+      <c r="F23">
+        <v>-0.240142259136016</v>
+      </c>
+      <c r="G23">
+        <v>-0.06940934091381483</v>
+      </c>
+      <c r="H23">
+        <v>-0.1462771977762387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07227753829213629</v>
+        <v>0.0805002517578296</v>
       </c>
       <c r="C24">
-        <v>0.05133852149462606</v>
+        <v>0.03469497457742774</v>
       </c>
       <c r="D24">
-        <v>0.05972041965708117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05897115514798596</v>
+      </c>
+      <c r="E24">
+        <v>-0.01876233360967587</v>
+      </c>
+      <c r="F24">
+        <v>0.03380305667884394</v>
+      </c>
+      <c r="G24">
+        <v>0.01198924266522088</v>
+      </c>
+      <c r="H24">
+        <v>0.04998760514397663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07099366960697988</v>
+        <v>0.07813552289227796</v>
       </c>
       <c r="C25">
-        <v>0.05638223003205098</v>
+        <v>0.03907613470725574</v>
       </c>
       <c r="D25">
-        <v>0.06544713508646441</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05177631970792605</v>
+      </c>
+      <c r="E25">
+        <v>-0.02314561761910261</v>
+      </c>
+      <c r="F25">
+        <v>0.02190561356250227</v>
+      </c>
+      <c r="G25">
+        <v>0.01922127113533504</v>
+      </c>
+      <c r="H25">
+        <v>0.05283769104747786</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04549341825002045</v>
+        <v>0.0481397059714918</v>
       </c>
       <c r="C26">
-        <v>0.009853379198225015</v>
+        <v>0.00245016580765535</v>
       </c>
       <c r="D26">
-        <v>0.01302998315506366</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01712549239397331</v>
+      </c>
+      <c r="E26">
+        <v>-0.05601733272954133</v>
+      </c>
+      <c r="F26">
+        <v>0.02086043880003679</v>
+      </c>
+      <c r="G26">
+        <v>-0.01081255859281482</v>
+      </c>
+      <c r="H26">
+        <v>0.05319153058148007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05036249812893329</v>
+        <v>0.06064595852107635</v>
       </c>
       <c r="C28">
-        <v>0.07318789681883431</v>
+        <v>0.08466946098127773</v>
       </c>
       <c r="D28">
-        <v>-0.3157118233826829</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.3108693325042111</v>
+      </c>
+      <c r="E28">
+        <v>-0.02660927766063773</v>
+      </c>
+      <c r="F28">
+        <v>0.05356417513336631</v>
+      </c>
+      <c r="G28">
+        <v>0.03354337747384995</v>
+      </c>
+      <c r="H28">
+        <v>-0.0394320578280355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04106414672932579</v>
+        <v>0.04854357911125862</v>
       </c>
       <c r="C29">
-        <v>0.03010788601258529</v>
+        <v>0.02535958233877</v>
       </c>
       <c r="D29">
-        <v>0.007849346199605289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.006636390983288223</v>
+      </c>
+      <c r="E29">
+        <v>-0.06584644306489575</v>
+      </c>
+      <c r="F29">
+        <v>0.0009650947797434067</v>
+      </c>
+      <c r="G29">
+        <v>-0.008673188427597496</v>
+      </c>
+      <c r="H29">
+        <v>0.07447830241666928</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1231293888673148</v>
+        <v>0.1306582033626916</v>
       </c>
       <c r="C30">
-        <v>0.09062396613522049</v>
+        <v>0.06468111036201515</v>
       </c>
       <c r="D30">
-        <v>0.1133432160096092</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.06522972603292147</v>
+      </c>
+      <c r="E30">
+        <v>-0.08172894516978092</v>
+      </c>
+      <c r="F30">
+        <v>-0.02129673463466349</v>
+      </c>
+      <c r="G30">
+        <v>0.0820007192081587</v>
+      </c>
+      <c r="H30">
+        <v>-0.03976002899571509</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04356120411074116</v>
+        <v>0.04864135863480023</v>
       </c>
       <c r="C31">
-        <v>0.02262340040687116</v>
+        <v>0.01425607891622951</v>
       </c>
       <c r="D31">
-        <v>0.02510592358134623</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02664127490000832</v>
+      </c>
+      <c r="E31">
+        <v>-0.02603972226451979</v>
+      </c>
+      <c r="F31">
+        <v>0.009504181887677843</v>
+      </c>
+      <c r="G31">
+        <v>-0.02531989053925622</v>
+      </c>
+      <c r="H31">
+        <v>0.06322998815997903</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03872615028483984</v>
+        <v>0.03891256233814838</v>
       </c>
       <c r="C32">
-        <v>0.02391095194574141</v>
+        <v>0.01743907425011689</v>
       </c>
       <c r="D32">
-        <v>0.02158863615712566</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01230977365748021</v>
+      </c>
+      <c r="E32">
+        <v>-0.0565716667856865</v>
+      </c>
+      <c r="F32">
+        <v>-0.0263945703875694</v>
+      </c>
+      <c r="G32">
+        <v>0.0256308222736813</v>
+      </c>
+      <c r="H32">
+        <v>0.08119098057404968</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08331816494906938</v>
+        <v>0.09607182003354546</v>
       </c>
       <c r="C33">
-        <v>0.04489445491270368</v>
+        <v>0.02922707595138387</v>
       </c>
       <c r="D33">
-        <v>0.06136252661928301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04493100772476535</v>
+      </c>
+      <c r="E33">
+        <v>-0.01592656864920842</v>
+      </c>
+      <c r="F33">
+        <v>0.003312101033298722</v>
+      </c>
+      <c r="G33">
+        <v>-0.006448950874621984</v>
+      </c>
+      <c r="H33">
+        <v>0.0541746156576513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0568425686870594</v>
+        <v>0.06310978231740406</v>
       </c>
       <c r="C34">
-        <v>0.02833718305711473</v>
+        <v>0.0146718279121431</v>
       </c>
       <c r="D34">
-        <v>0.05344828994550298</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05191106516815032</v>
+      </c>
+      <c r="E34">
+        <v>-0.01021940857382568</v>
+      </c>
+      <c r="F34">
+        <v>0.01478114887244588</v>
+      </c>
+      <c r="G34">
+        <v>-0.002539286364553981</v>
+      </c>
+      <c r="H34">
+        <v>0.0544998807000318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03775326111491735</v>
+        <v>0.03975631655263827</v>
       </c>
       <c r="C35">
-        <v>0.00734710870613549</v>
+        <v>0.002585347940583667</v>
       </c>
       <c r="D35">
-        <v>0.01147145699771141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.009322008441790975</v>
+      </c>
+      <c r="E35">
+        <v>-0.01951969399996531</v>
+      </c>
+      <c r="F35">
+        <v>-0.01662187809231967</v>
+      </c>
+      <c r="G35">
+        <v>-0.01045279605999094</v>
+      </c>
+      <c r="H35">
+        <v>0.01562611173435296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02233026553592072</v>
+        <v>0.02866991111021005</v>
       </c>
       <c r="C36">
-        <v>0.01707309790036446</v>
+        <v>0.01404478837449306</v>
       </c>
       <c r="D36">
-        <v>0.02255980276521802</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01543004675227049</v>
+      </c>
+      <c r="E36">
+        <v>-0.04118875256668898</v>
+      </c>
+      <c r="F36">
+        <v>0.01504822580610463</v>
+      </c>
+      <c r="G36">
+        <v>-0.008023372070086233</v>
+      </c>
+      <c r="H36">
+        <v>0.04298661334176459</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03978346128258455</v>
+        <v>0.04434603989872049</v>
       </c>
       <c r="C38">
-        <v>0.004969119569563448</v>
+        <v>-2.067237250959992e-05</v>
       </c>
       <c r="D38">
-        <v>0.01812794300655829</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01732596061068606</v>
+      </c>
+      <c r="E38">
+        <v>-0.05334513048682044</v>
+      </c>
+      <c r="F38">
+        <v>-0.01355028776752907</v>
+      </c>
+      <c r="G38">
+        <v>0.006494342899420065</v>
+      </c>
+      <c r="H38">
+        <v>0.03195516043182706</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09010790251623092</v>
+        <v>0.1018918553955832</v>
       </c>
       <c r="C39">
-        <v>0.07370736947502382</v>
+        <v>0.05323840958293889</v>
       </c>
       <c r="D39">
-        <v>0.05767754729530603</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05913483291985433</v>
+      </c>
+      <c r="E39">
+        <v>0.001416852524147384</v>
+      </c>
+      <c r="F39">
+        <v>0.001024928779403376</v>
+      </c>
+      <c r="G39">
+        <v>0.03507709665861668</v>
+      </c>
+      <c r="H39">
+        <v>0.04649158474906726</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07530668153150566</v>
+        <v>0.07110941686146721</v>
       </c>
       <c r="C40">
-        <v>0.0395135569085019</v>
+        <v>0.01960726220957127</v>
       </c>
       <c r="D40">
-        <v>0.0007999001458474954</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01038277555142845</v>
+      </c>
+      <c r="E40">
+        <v>-0.01705403795707802</v>
+      </c>
+      <c r="F40">
+        <v>-0.05984155586177987</v>
+      </c>
+      <c r="G40">
+        <v>0.04949270929919133</v>
+      </c>
+      <c r="H40">
+        <v>-0.1045350496046222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04118772845136149</v>
+        <v>0.04466143894064432</v>
       </c>
       <c r="C41">
-        <v>0.005197646787248811</v>
+        <v>-0.001491641647045838</v>
       </c>
       <c r="D41">
-        <v>0.03569831607878923</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03265307072520785</v>
+      </c>
+      <c r="E41">
+        <v>-0.003414880840680988</v>
+      </c>
+      <c r="F41">
+        <v>-0.01626748240151166</v>
+      </c>
+      <c r="G41">
+        <v>0.008537777628469117</v>
+      </c>
+      <c r="H41">
+        <v>0.03183191986636041</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04922549978400936</v>
+        <v>0.0588828600436838</v>
       </c>
       <c r="C43">
-        <v>0.0257593558727874</v>
+        <v>0.01839233482109859</v>
       </c>
       <c r="D43">
-        <v>0.01649266903708841</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02263421588780964</v>
+      </c>
+      <c r="E43">
+        <v>-0.02312401476792959</v>
+      </c>
+      <c r="F43">
+        <v>0.01016222007803129</v>
+      </c>
+      <c r="G43">
+        <v>-0.01686261593837986</v>
+      </c>
+      <c r="H43">
+        <v>0.05264549042373378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09318036131068144</v>
+        <v>0.09646642876028325</v>
       </c>
       <c r="C44">
-        <v>0.09324093059245114</v>
+        <v>0.06853311052686609</v>
       </c>
       <c r="D44">
-        <v>0.07748158411736492</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05416464996408681</v>
+      </c>
+      <c r="E44">
+        <v>-0.08994858930403346</v>
+      </c>
+      <c r="F44">
+        <v>0.03696048562274462</v>
+      </c>
+      <c r="G44">
+        <v>0.02714849517249647</v>
+      </c>
+      <c r="H44">
+        <v>0.016069482349022</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02496795697778235</v>
+        <v>0.03430777800034671</v>
       </c>
       <c r="C46">
-        <v>0.01328715960399605</v>
+        <v>0.01150951814284703</v>
       </c>
       <c r="D46">
-        <v>0.0218488505416069</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0319533423059648</v>
+      </c>
+      <c r="E46">
+        <v>-0.03464207636082364</v>
+      </c>
+      <c r="F46">
+        <v>0.01158666043332295</v>
+      </c>
+      <c r="G46">
+        <v>-0.007142631747992061</v>
+      </c>
+      <c r="H46">
+        <v>0.03795973944958122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02968474272809278</v>
+        <v>0.03788216937535819</v>
       </c>
       <c r="C47">
-        <v>0.02506994572629547</v>
+        <v>0.02061404081721069</v>
       </c>
       <c r="D47">
-        <v>0.009856488442683017</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.009016409600242451</v>
+      </c>
+      <c r="E47">
+        <v>-0.05293124773564475</v>
+      </c>
+      <c r="F47">
+        <v>0.0009861100085678503</v>
+      </c>
+      <c r="G47">
+        <v>-0.04436858059031009</v>
+      </c>
+      <c r="H47">
+        <v>0.02250606586980782</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03302166231245815</v>
+        <v>0.03823893855304095</v>
       </c>
       <c r="C48">
-        <v>0.01847663487851682</v>
+        <v>0.01152174782986373</v>
       </c>
       <c r="D48">
-        <v>0.03092183821836552</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01941572772855722</v>
+      </c>
+      <c r="E48">
+        <v>-0.04600600386429425</v>
+      </c>
+      <c r="F48">
+        <v>0.0002663170926213727</v>
+      </c>
+      <c r="G48">
+        <v>0.01210797001839529</v>
+      </c>
+      <c r="H48">
+        <v>0.03738329993169509</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1587782988611129</v>
+        <v>0.1890872206822915</v>
       </c>
       <c r="C49">
-        <v>0.05675246840908982</v>
+        <v>0.03524960304647734</v>
       </c>
       <c r="D49">
-        <v>-0.01119940203129807</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02829505589306551</v>
+      </c>
+      <c r="E49">
+        <v>0.1415930345618547</v>
+      </c>
+      <c r="F49">
+        <v>0.08475535797264348</v>
+      </c>
+      <c r="G49">
+        <v>-0.05655301389130278</v>
+      </c>
+      <c r="H49">
+        <v>-0.2325526724746986</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03822187615572718</v>
+        <v>0.04540515405537421</v>
       </c>
       <c r="C50">
-        <v>0.02671960094749276</v>
+        <v>0.01984610156477746</v>
       </c>
       <c r="D50">
-        <v>0.03972357236304911</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03228833345899938</v>
+      </c>
+      <c r="E50">
+        <v>-0.04999290164079893</v>
+      </c>
+      <c r="F50">
+        <v>0.009983454556151565</v>
+      </c>
+      <c r="G50">
+        <v>-0.02163415173956861</v>
+      </c>
+      <c r="H50">
+        <v>0.06013400101960814</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02718545247758598</v>
+        <v>0.03029671632561412</v>
       </c>
       <c r="C51">
-        <v>0.01112500252584397</v>
+        <v>0.005508876202438528</v>
       </c>
       <c r="D51">
-        <v>0.01135965768313655</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01058630031503968</v>
+      </c>
+      <c r="E51">
+        <v>-0.01323723041187699</v>
+      </c>
+      <c r="F51">
+        <v>0.01553097037014516</v>
+      </c>
+      <c r="G51">
+        <v>-0.001266730954630088</v>
+      </c>
+      <c r="H51">
+        <v>-0.001068662515607149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1512784598575911</v>
+        <v>0.1619887013428288</v>
       </c>
       <c r="C53">
-        <v>0.07789034794058657</v>
+        <v>0.05158145729462398</v>
       </c>
       <c r="D53">
-        <v>0.02113196797224672</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01819379707098251</v>
+      </c>
+      <c r="E53">
+        <v>0.02896286769556477</v>
+      </c>
+      <c r="F53">
+        <v>0.02136850228505941</v>
+      </c>
+      <c r="G53">
+        <v>-0.02415542058333233</v>
+      </c>
+      <c r="H53">
+        <v>0.1818819870367134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05594501331444903</v>
+        <v>0.05821456527991092</v>
       </c>
       <c r="C54">
-        <v>0.0260144253516689</v>
+        <v>0.01471058535509748</v>
       </c>
       <c r="D54">
-        <v>0.02227876781732822</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01538222013236059</v>
+      </c>
+      <c r="E54">
+        <v>-0.05136493577935399</v>
+      </c>
+      <c r="F54">
+        <v>9.444245335473997e-05</v>
+      </c>
+      <c r="G54">
+        <v>0.01120998668003847</v>
+      </c>
+      <c r="H54">
+        <v>0.04723396944108024</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09912273696334006</v>
+        <v>0.1033770917884914</v>
       </c>
       <c r="C55">
-        <v>0.05418977036929627</v>
+        <v>0.03455628671364196</v>
       </c>
       <c r="D55">
-        <v>0.02510078437520542</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02263508872900471</v>
+      </c>
+      <c r="E55">
+        <v>-0.01801191373511145</v>
+      </c>
+      <c r="F55">
+        <v>0.0122005763038434</v>
+      </c>
+      <c r="G55">
+        <v>-0.01802233566785041</v>
+      </c>
+      <c r="H55">
+        <v>0.1519315815983515</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1486032645161624</v>
+        <v>0.1620571579682185</v>
       </c>
       <c r="C56">
-        <v>0.09223614278646389</v>
+        <v>0.06469392309079901</v>
       </c>
       <c r="D56">
-        <v>0.01968822053259198</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01907288724439166</v>
+      </c>
+      <c r="E56">
+        <v>0.02531147108224375</v>
+      </c>
+      <c r="F56">
+        <v>0.03503614673852994</v>
+      </c>
+      <c r="G56">
+        <v>-0.03772914018240345</v>
+      </c>
+      <c r="H56">
+        <v>0.1768855594325754</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.128422534719299</v>
+        <v>0.1001671816008024</v>
       </c>
       <c r="C58">
-        <v>0.0082057328926849</v>
+        <v>-0.03436931669553125</v>
       </c>
       <c r="D58">
-        <v>0.02163701638742846</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03681730947471579</v>
+      </c>
+      <c r="E58">
+        <v>-0.1627230715169115</v>
+      </c>
+      <c r="F58">
+        <v>-0.02953092652642747</v>
+      </c>
+      <c r="G58">
+        <v>-0.01932068014313708</v>
+      </c>
+      <c r="H58">
+        <v>-0.2490194278889923</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1196054106142006</v>
+        <v>0.1352921540564819</v>
       </c>
       <c r="C59">
-        <v>0.07941887531759952</v>
+        <v>0.0852938827216269</v>
       </c>
       <c r="D59">
-        <v>-0.3588723826073712</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3657973693753941</v>
+      </c>
+      <c r="E59">
+        <v>-0.02100939099802701</v>
+      </c>
+      <c r="F59">
+        <v>0.01617181423619557</v>
+      </c>
+      <c r="G59">
+        <v>-0.02335606911354181</v>
+      </c>
+      <c r="H59">
+        <v>-0.000186909106259222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2008492725381326</v>
+        <v>0.2323621187200136</v>
       </c>
       <c r="C60">
-        <v>0.1010417242825956</v>
+        <v>0.06898901022637534</v>
       </c>
       <c r="D60">
-        <v>0.01801420470181042</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0427628050477718</v>
+      </c>
+      <c r="E60">
+        <v>0.09188969419406352</v>
+      </c>
+      <c r="F60">
+        <v>0.07329229207524922</v>
+      </c>
+      <c r="G60">
+        <v>0.02486637905357443</v>
+      </c>
+      <c r="H60">
+        <v>-0.1476932521058553</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08106606331156077</v>
+        <v>0.08875942730578755</v>
       </c>
       <c r="C61">
-        <v>0.05291032175536865</v>
+        <v>0.03773120065955558</v>
       </c>
       <c r="D61">
-        <v>0.04242794669616189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03982661732037637</v>
+      </c>
+      <c r="E61">
+        <v>0.002259117304751027</v>
+      </c>
+      <c r="F61">
+        <v>-0.0002360046580295545</v>
+      </c>
+      <c r="G61">
+        <v>-0.0004194053768645115</v>
+      </c>
+      <c r="H61">
+        <v>0.0626688570750433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1290583428242766</v>
+        <v>0.1391864412706452</v>
       </c>
       <c r="C62">
-        <v>0.06485915121021958</v>
+        <v>0.03970602411712599</v>
       </c>
       <c r="D62">
-        <v>0.02665679954085183</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.03165390590707579</v>
+      </c>
+      <c r="E62">
+        <v>0.06360182444635065</v>
+      </c>
+      <c r="F62">
+        <v>0.0179309104933175</v>
+      </c>
+      <c r="G62">
+        <v>0.005373209475986853</v>
+      </c>
+      <c r="H62">
+        <v>0.1968632214656239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0509674518436024</v>
+        <v>0.05114589689304903</v>
       </c>
       <c r="C63">
-        <v>0.02444369285456527</v>
+        <v>0.01337241061259442</v>
       </c>
       <c r="D63">
-        <v>0.02135234986784687</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01958191434829101</v>
+      </c>
+      <c r="E63">
+        <v>-0.05069847050426824</v>
+      </c>
+      <c r="F63">
+        <v>-0.01638217418006862</v>
+      </c>
+      <c r="G63">
+        <v>0.01973818466866594</v>
+      </c>
+      <c r="H63">
+        <v>0.053704792043509</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1017687326690956</v>
+        <v>0.1081918155627236</v>
       </c>
       <c r="C64">
-        <v>0.03281273586562122</v>
+        <v>0.01631588662906294</v>
       </c>
       <c r="D64">
-        <v>0.04333237908621904</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03148254459548463</v>
+      </c>
+      <c r="E64">
+        <v>-0.0411833158557547</v>
+      </c>
+      <c r="F64">
+        <v>0.0330137390839991</v>
+      </c>
+      <c r="G64">
+        <v>0.04409750152355282</v>
+      </c>
+      <c r="H64">
+        <v>0.04058582751160097</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1237651800955127</v>
+        <v>0.1260250383483982</v>
       </c>
       <c r="C65">
-        <v>0.06180671496143669</v>
+        <v>0.03925789642610809</v>
       </c>
       <c r="D65">
-        <v>-0.01648591213217491</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.006963463714906155</v>
+      </c>
+      <c r="E65">
+        <v>-0.01060947108203312</v>
+      </c>
+      <c r="F65">
+        <v>0.05313674127947234</v>
+      </c>
+      <c r="G65">
+        <v>0.06293033813247852</v>
+      </c>
+      <c r="H65">
+        <v>-0.1521800660155594</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1451135207093855</v>
+        <v>0.1550197292896512</v>
       </c>
       <c r="C66">
-        <v>0.07803288380496214</v>
+        <v>0.04909453856778375</v>
       </c>
       <c r="D66">
-        <v>0.1085162936869685</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09265246489991968</v>
+      </c>
+      <c r="E66">
+        <v>0.03113954819426466</v>
+      </c>
+      <c r="F66">
+        <v>0.01354449366258367</v>
+      </c>
+      <c r="G66">
+        <v>0.04491557785778659</v>
+      </c>
+      <c r="H66">
+        <v>0.1226170600535282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07267103974059638</v>
+        <v>0.08409155454544871</v>
       </c>
       <c r="C67">
-        <v>0.01517160361994733</v>
+        <v>0.006120727678538052</v>
       </c>
       <c r="D67">
-        <v>0.02090537088193778</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02971639199533169</v>
+      </c>
+      <c r="E67">
+        <v>-0.02272638892363249</v>
+      </c>
+      <c r="F67">
+        <v>0.01778999459484384</v>
+      </c>
+      <c r="G67">
+        <v>-0.01126410204706998</v>
+      </c>
+      <c r="H67">
+        <v>0.03648555230786035</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05651784238045276</v>
+        <v>0.05568671531890877</v>
       </c>
       <c r="C68">
-        <v>0.0499506471899323</v>
+        <v>0.05758535094549323</v>
       </c>
       <c r="D68">
-        <v>-0.2534808811289997</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2705611160521544</v>
+      </c>
+      <c r="E68">
+        <v>-0.03413289677024892</v>
+      </c>
+      <c r="F68">
+        <v>0.01248281358810149</v>
+      </c>
+      <c r="G68">
+        <v>-0.01691668598587245</v>
+      </c>
+      <c r="H68">
+        <v>0.003041129102767512</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05164937485666124</v>
+        <v>0.05338845870403743</v>
       </c>
       <c r="C69">
-        <v>0.01807785724868622</v>
+        <v>0.006965393787287162</v>
       </c>
       <c r="D69">
-        <v>0.01825658552345083</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01403372373825184</v>
+      </c>
+      <c r="E69">
+        <v>-0.02346562835080959</v>
+      </c>
+      <c r="F69">
+        <v>-0.01150249801634448</v>
+      </c>
+      <c r="G69">
+        <v>-0.02283975549738083</v>
+      </c>
+      <c r="H69">
+        <v>0.04714939743951315</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003985842284937495</v>
+        <v>0.02682565206174348</v>
       </c>
       <c r="C70">
-        <v>-0.005317752958661048</v>
+        <v>4.751117899717538e-05</v>
       </c>
       <c r="D70">
-        <v>0.001742997082649791</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.006272670145252203</v>
+      </c>
+      <c r="E70">
+        <v>0.01983344555709755</v>
+      </c>
+      <c r="F70">
+        <v>0.01634051643306429</v>
+      </c>
+      <c r="G70">
+        <v>-0.02813614437269851</v>
+      </c>
+      <c r="H70">
+        <v>-0.02625310545114002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05750046725785828</v>
+        <v>0.05844360690167965</v>
       </c>
       <c r="C71">
-        <v>0.05015474639457648</v>
+        <v>0.06120281047808042</v>
       </c>
       <c r="D71">
-        <v>-0.2967643852420844</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.296997507028912</v>
+      </c>
+      <c r="E71">
+        <v>-0.03230137535961809</v>
+      </c>
+      <c r="F71">
+        <v>0.03989827789693114</v>
+      </c>
+      <c r="G71">
+        <v>-0.003348440640329689</v>
+      </c>
+      <c r="H71">
+        <v>0.01029642920119986</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1401509312062638</v>
+        <v>0.1447590818466613</v>
       </c>
       <c r="C72">
-        <v>0.06423033910402105</v>
+        <v>0.03507686629132973</v>
       </c>
       <c r="D72">
-        <v>-0.001151509966436059</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.005229142703190643</v>
+      </c>
+      <c r="E72">
+        <v>0.1125775882762268</v>
+      </c>
+      <c r="F72">
+        <v>-0.1502474978309012</v>
+      </c>
+      <c r="G72">
+        <v>0.1216494696859294</v>
+      </c>
+      <c r="H72">
+        <v>0.01560170531892543</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2775512988048993</v>
+        <v>0.2883930103298344</v>
       </c>
       <c r="C73">
-        <v>0.1105018616602117</v>
+        <v>0.04685642269263022</v>
       </c>
       <c r="D73">
-        <v>0.05240879366494257</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09784489629693836</v>
+      </c>
+      <c r="E73">
+        <v>0.2019854671112895</v>
+      </c>
+      <c r="F73">
+        <v>0.1319580729263604</v>
+      </c>
+      <c r="G73">
+        <v>-0.1375615019049441</v>
+      </c>
+      <c r="H73">
+        <v>-0.4960430882521097</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07859073463648879</v>
+        <v>0.09117511296485042</v>
       </c>
       <c r="C74">
-        <v>0.07685224626724134</v>
+        <v>0.06063134540136091</v>
       </c>
       <c r="D74">
-        <v>0.01361897774183601</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02898119220189585</v>
+      </c>
+      <c r="E74">
+        <v>0.004392341164374165</v>
+      </c>
+      <c r="F74">
+        <v>0.001967925031451853</v>
+      </c>
+      <c r="G74">
+        <v>-0.05724950390084117</v>
+      </c>
+      <c r="H74">
+        <v>0.1135157486232627</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09585851706301267</v>
+        <v>0.1009258472282264</v>
       </c>
       <c r="C75">
-        <v>0.05302291968323965</v>
+        <v>0.02852958581339259</v>
       </c>
       <c r="D75">
-        <v>0.01070885341628842</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.01433227544508191</v>
+      </c>
+      <c r="E75">
+        <v>-0.00865846332584745</v>
+      </c>
+      <c r="F75">
+        <v>0.0210228356161768</v>
+      </c>
+      <c r="G75">
+        <v>-0.02440532131136286</v>
+      </c>
+      <c r="H75">
+        <v>0.1158629262377327</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1294312041187196</v>
+        <v>0.1405173912466801</v>
       </c>
       <c r="C76">
-        <v>0.08375445855965853</v>
+        <v>0.05836013099430701</v>
       </c>
       <c r="D76">
-        <v>0.05002998834527581</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04783692154763305</v>
+      </c>
+      <c r="E76">
+        <v>-0.03029029387380281</v>
+      </c>
+      <c r="F76">
+        <v>0.04142094177947588</v>
+      </c>
+      <c r="G76">
+        <v>-0.02039045495694117</v>
+      </c>
+      <c r="H76">
+        <v>0.2013538454604821</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1152412337618853</v>
+        <v>0.1083787996876123</v>
       </c>
       <c r="C77">
-        <v>0.01986201384313914</v>
+        <v>-0.008006285489565345</v>
       </c>
       <c r="D77">
-        <v>0.0513388140586496</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.02100194315444453</v>
+      </c>
+      <c r="E77">
+        <v>-0.03942947641504959</v>
+      </c>
+      <c r="F77">
+        <v>0.1015079361142671</v>
+      </c>
+      <c r="G77">
+        <v>0.8953388854204326</v>
+      </c>
+      <c r="H77">
+        <v>-0.07055277642360407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1022619967156629</v>
+        <v>0.1431025897851662</v>
       </c>
       <c r="C78">
-        <v>0.04177412691345515</v>
+        <v>0.03759855773926438</v>
       </c>
       <c r="D78">
-        <v>0.08139269431438764</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07825019564727005</v>
+      </c>
+      <c r="E78">
+        <v>-0.06463018548149772</v>
+      </c>
+      <c r="F78">
+        <v>0.03838374030338371</v>
+      </c>
+      <c r="G78">
+        <v>0.08364655899691199</v>
+      </c>
+      <c r="H78">
+        <v>-0.04922084100317273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.145280965272746</v>
+        <v>0.1511353689588793</v>
       </c>
       <c r="C79">
-        <v>0.07526027625717885</v>
+        <v>0.04421388454045795</v>
       </c>
       <c r="D79">
-        <v>0.03233997217700445</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02726277301172001</v>
+      </c>
+      <c r="E79">
+        <v>0.0169366327524119</v>
+      </c>
+      <c r="F79">
+        <v>0.02240799803214321</v>
+      </c>
+      <c r="G79">
+        <v>-0.04084221649440946</v>
+      </c>
+      <c r="H79">
+        <v>0.176480707005203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04273268001210577</v>
+        <v>0.04275019047099419</v>
       </c>
       <c r="C80">
-        <v>0.01569017845835325</v>
+        <v>0.008156242004411505</v>
       </c>
       <c r="D80">
-        <v>0.03126811944694282</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01704618164953458</v>
+      </c>
+      <c r="E80">
+        <v>0.003798182632238513</v>
+      </c>
+      <c r="F80">
+        <v>0.002645625945483252</v>
+      </c>
+      <c r="G80">
+        <v>-0.02977405037191404</v>
+      </c>
+      <c r="H80">
+        <v>0.02851030512526272</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1171518837799556</v>
+        <v>0.1199646001489175</v>
       </c>
       <c r="C81">
-        <v>0.06453264813744665</v>
+        <v>0.03842261000361218</v>
       </c>
       <c r="D81">
-        <v>0.03346992112235742</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02274183731869239</v>
+      </c>
+      <c r="E81">
+        <v>-0.01852295391243054</v>
+      </c>
+      <c r="F81">
+        <v>0.01488073916517474</v>
+      </c>
+      <c r="G81">
+        <v>-0.06077112814975109</v>
+      </c>
+      <c r="H81">
+        <v>0.1505252567231997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1296516377322371</v>
+        <v>0.1316248135297417</v>
       </c>
       <c r="C82">
-        <v>0.07795460581779029</v>
+        <v>0.05069725415116316</v>
       </c>
       <c r="D82">
-        <v>0.01410076287363268</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.02453474323733251</v>
+      </c>
+      <c r="E82">
+        <v>0.007118933789272397</v>
+      </c>
+      <c r="F82">
+        <v>0.05591039548366481</v>
+      </c>
+      <c r="G82">
+        <v>-0.05466679409179206</v>
+      </c>
+      <c r="H82">
+        <v>0.2193773763466593</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07514737855988378</v>
+        <v>0.08589797966002646</v>
       </c>
       <c r="C83">
-        <v>-0.0125303932836801</v>
+        <v>-0.02588357079460338</v>
       </c>
       <c r="D83">
-        <v>0.02362922396349296</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0334240196698788</v>
+      </c>
+      <c r="E83">
+        <v>-0.02627074761124989</v>
+      </c>
+      <c r="F83">
+        <v>0.05563117618858648</v>
+      </c>
+      <c r="G83">
+        <v>-0.07953846945231495</v>
+      </c>
+      <c r="H83">
+        <v>-0.05788988412137477</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02803452942346213</v>
+        <v>0.03707537395768273</v>
       </c>
       <c r="C84">
-        <v>0.02809198825615827</v>
+        <v>0.02298943250119842</v>
       </c>
       <c r="D84">
-        <v>0.02948568598832321</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03140625769926927</v>
+      </c>
+      <c r="E84">
+        <v>-0.02924632133946821</v>
+      </c>
+      <c r="F84">
+        <v>-0.05619188966524993</v>
+      </c>
+      <c r="G84">
+        <v>-0.06526331926236206</v>
+      </c>
+      <c r="H84">
+        <v>-0.0002093543693259449</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.119946967404912</v>
+        <v>0.1222395853776439</v>
       </c>
       <c r="C85">
-        <v>0.05535561110798486</v>
+        <v>0.02933484637723229</v>
       </c>
       <c r="D85">
-        <v>0.0186722126131202</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.0184433925150415</v>
+      </c>
+      <c r="E85">
+        <v>-0.02020459177579948</v>
+      </c>
+      <c r="F85">
+        <v>0.03544186676587877</v>
+      </c>
+      <c r="G85">
+        <v>-0.03324958774571036</v>
+      </c>
+      <c r="H85">
+        <v>0.1562413228222681</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04976565053357228</v>
+        <v>0.05817103975170548</v>
       </c>
       <c r="C86">
-        <v>0.02691645408309395</v>
+        <v>0.01830190172262982</v>
       </c>
       <c r="D86">
-        <v>0.03094070266015148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.02840615630892161</v>
+      </c>
+      <c r="E86">
+        <v>-0.07348274622296305</v>
+      </c>
+      <c r="F86">
+        <v>0.02361167056713813</v>
+      </c>
+      <c r="G86">
+        <v>-0.02244437370589007</v>
+      </c>
+      <c r="H86">
+        <v>-0.01504813285270455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1167889406018063</v>
+        <v>0.1213402151062039</v>
       </c>
       <c r="C87">
-        <v>0.07044716590970573</v>
+        <v>0.03805666902038597</v>
       </c>
       <c r="D87">
-        <v>0.07579904052310686</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07098045902599444</v>
+      </c>
+      <c r="E87">
+        <v>-0.02113985941960675</v>
+      </c>
+      <c r="F87">
+        <v>0.0007897871553514044</v>
+      </c>
+      <c r="G87">
+        <v>0.1316526593689371</v>
+      </c>
+      <c r="H87">
+        <v>-0.03758259001903862</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05226981040683758</v>
+        <v>0.06058697541501903</v>
       </c>
       <c r="C88">
-        <v>0.02907855450714383</v>
+        <v>0.02019146576701492</v>
       </c>
       <c r="D88">
-        <v>0.02160469763027265</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03230258475744204</v>
+      </c>
+      <c r="E88">
+        <v>-0.02394858092803864</v>
+      </c>
+      <c r="F88">
+        <v>0.005368660460257485</v>
+      </c>
+      <c r="G88">
+        <v>0.004251032492849876</v>
+      </c>
+      <c r="H88">
+        <v>0.05245680436837188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08539332823846892</v>
+        <v>0.09387541168670349</v>
       </c>
       <c r="C89">
-        <v>0.068267729041049</v>
+        <v>0.07969777481428932</v>
       </c>
       <c r="D89">
-        <v>-0.3250902891028839</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3492632073762994</v>
+      </c>
+      <c r="E89">
+        <v>-0.07491323152963471</v>
+      </c>
+      <c r="F89">
+        <v>0.06827822714171065</v>
+      </c>
+      <c r="G89">
+        <v>-0.02891685176163601</v>
+      </c>
+      <c r="H89">
+        <v>0.001837001521365305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07217988191714612</v>
+        <v>0.07743629693685126</v>
       </c>
       <c r="C90">
-        <v>0.05900023061521642</v>
+        <v>0.06824751848383215</v>
       </c>
       <c r="D90">
-        <v>-0.3188292843387067</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.3087334233608521</v>
+      </c>
+      <c r="E90">
+        <v>-0.05907521625003959</v>
+      </c>
+      <c r="F90">
+        <v>-0.00476376869110884</v>
+      </c>
+      <c r="G90">
+        <v>-0.003152826458044068</v>
+      </c>
+      <c r="H90">
+        <v>0.001247891129703969</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08713089017666684</v>
+        <v>0.09014984061199811</v>
       </c>
       <c r="C91">
-        <v>0.05691555929832422</v>
+        <v>0.03431192887798083</v>
       </c>
       <c r="D91">
-        <v>0.02854593377731197</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03081017489734253</v>
+      </c>
+      <c r="E91">
+        <v>-0.01162669435145103</v>
+      </c>
+      <c r="F91">
+        <v>0.004242299690899766</v>
+      </c>
+      <c r="G91">
+        <v>-0.05192273349733049</v>
+      </c>
+      <c r="H91">
+        <v>0.08213211872234588</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07186982632604134</v>
+        <v>0.07667655404504446</v>
       </c>
       <c r="C92">
-        <v>0.0727468234279698</v>
+        <v>0.08324474605404011</v>
       </c>
       <c r="D92">
-        <v>-0.3401958567844757</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3463933251443591</v>
+      </c>
+      <c r="E92">
+        <v>-0.04024713802696599</v>
+      </c>
+      <c r="F92">
+        <v>0.04460796844080593</v>
+      </c>
+      <c r="G92">
+        <v>0.01742408513613878</v>
+      </c>
+      <c r="H92">
+        <v>0.0171364958393751</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06331064238331599</v>
+        <v>0.07331407249656433</v>
       </c>
       <c r="C93">
-        <v>0.06475110604830529</v>
+        <v>0.07882886605733759</v>
       </c>
       <c r="D93">
-        <v>-0.312659210851413</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.3065336185515286</v>
+      </c>
+      <c r="E93">
+        <v>-0.0313275830255808</v>
+      </c>
+      <c r="F93">
+        <v>0.0336215941156215</v>
+      </c>
+      <c r="G93">
+        <v>0.01545163755905421</v>
+      </c>
+      <c r="H93">
+        <v>-0.01063565127203865</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1338493568305878</v>
+        <v>0.1280904285050241</v>
       </c>
       <c r="C94">
-        <v>0.05508470758278859</v>
+        <v>0.02091817530595114</v>
       </c>
       <c r="D94">
-        <v>0.04164426244558293</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04597634826806601</v>
+      </c>
+      <c r="E94">
+        <v>0.00695036164600088</v>
+      </c>
+      <c r="F94">
+        <v>0.01795586654963309</v>
+      </c>
+      <c r="G94">
+        <v>-0.06213729535904725</v>
+      </c>
+      <c r="H94">
+        <v>0.09797017162890463</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.119428894164806</v>
+        <v>0.1267257426173057</v>
       </c>
       <c r="C95">
-        <v>0.03133176691623653</v>
+        <v>0.003840589878043942</v>
       </c>
       <c r="D95">
-        <v>0.06777676722494606</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.07203214982613762</v>
+      </c>
+      <c r="E95">
+        <v>-0.0159384617550074</v>
+      </c>
+      <c r="F95">
+        <v>0.03263340242613769</v>
+      </c>
+      <c r="G95">
+        <v>0.007692272541456946</v>
+      </c>
+      <c r="H95">
+        <v>-0.05007879017335198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.219461766835426</v>
+        <v>0.2064537501256909</v>
       </c>
       <c r="C97">
-        <v>0.04939474648196152</v>
+        <v>-0.002627188827405872</v>
       </c>
       <c r="D97">
-        <v>-0.1069720143757355</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.08388116766349284</v>
+      </c>
+      <c r="E97">
+        <v>0.3352805306311118</v>
+      </c>
+      <c r="F97">
+        <v>-0.8645634897399581</v>
+      </c>
+      <c r="G97">
+        <v>0.06565829658434097</v>
+      </c>
+      <c r="H97">
+        <v>0.00534270067233831</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2480839477337949</v>
+        <v>0.2764065090010262</v>
       </c>
       <c r="C98">
-        <v>0.07592578796058821</v>
+        <v>0.0329320613317788</v>
       </c>
       <c r="D98">
-        <v>0.03122839080819521</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05608527730168675</v>
+      </c>
+      <c r="E98">
+        <v>0.1807142575176852</v>
+      </c>
+      <c r="F98">
+        <v>0.1000621982719738</v>
+      </c>
+      <c r="G98">
+        <v>-0.22273632510159</v>
+      </c>
+      <c r="H98">
+        <v>-0.2233230043975457</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4459802835231504</v>
+        <v>0.2858680464017071</v>
       </c>
       <c r="C99">
-        <v>-0.8788649119662219</v>
+        <v>-0.9335838749711856</v>
       </c>
       <c r="D99">
-        <v>-0.05132191992724169</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.13143272029318</v>
+      </c>
+      <c r="E99">
+        <v>-0.07350284890589592</v>
+      </c>
+      <c r="F99">
+        <v>0.0479114081494785</v>
+      </c>
+      <c r="G99">
+        <v>-0.02128358448541881</v>
+      </c>
+      <c r="H99">
+        <v>0.064948919887356</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04090333405787536</v>
+        <v>0.04848370957287629</v>
       </c>
       <c r="C101">
-        <v>0.03020022906987932</v>
+        <v>0.02556391295207618</v>
       </c>
       <c r="D101">
-        <v>0.008428829257757474</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.006782345942642438</v>
+      </c>
+      <c r="E101">
+        <v>-0.06581721524317012</v>
+      </c>
+      <c r="F101">
+        <v>0.0006732829193847375</v>
+      </c>
+      <c r="G101">
+        <v>-0.009072107013274749</v>
+      </c>
+      <c r="H101">
+        <v>0.07329807609661933</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
